--- a/Code/GenModel/test.xlsx
+++ b/Code/GenModel/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenModel\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_File\fujitsu\MBD\Share\Code\GenModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C7F0A9-FF26-40C4-BC1A-09E33FA3C32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37BECF8-AD6A-4D4F-A795-EBC212609227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>INCA monitoring name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,10 @@
   </si>
   <si>
     <t>CanTx_Err_inf_eng_tra_rdctn_fail_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,14 +284,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,71 +575,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:R15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -675,11 +679,11 @@
       <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
       <c r="Q2" t="s">
         <v>2</v>
       </c>
@@ -711,7 +715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
@@ -740,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -769,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
@@ -798,7 +802,7 @@
         <v>1199.5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
@@ -827,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -856,7 +860,7 @@
         <v>1199.5</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
@@ -885,7 +889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
@@ -914,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
@@ -943,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
@@ -954,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -966,13 +970,13 @@
         <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>-848</v>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1199.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -1001,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,16 +1025,16 @@
         <v>32</v>
       </c>
       <c r="P13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>-848</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>1199.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1056,11 +1060,11 @@
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D15" t="s">
@@ -1097,5 +1101,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Code/GenModel/test.xlsx
+++ b/Code/GenModel/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_File\fujitsu\MBD\Share\Code\GenModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37BECF8-AD6A-4D4F-A795-EBC212609227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CEAE60-E593-4515-92DD-ED6B97796FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>INCA monitoring name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,21 @@
   <si>
     <t>UW</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can_gmlan_rx_trb_duty</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_trb_power_off_enb_stat</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_trb_ctrl_enb_stat</t>
+  </si>
+  <si>
+    <t>can_gmlan_rx_vnt_act_pos</t>
+  </si>
+  <si>
+    <t>can_gmaln_rx_trb_err_msg</t>
   </si>
 </sst>
 </file>
@@ -573,40 +588,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
@@ -639,7 +654,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -715,7 +730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
@@ -725,26 +740,26 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
         <v>42</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -754,26 +769,26 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
         <v>42</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
@@ -783,9 +798,6 @@
       <c r="H5">
         <v>0.5</v>
       </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -801,8 +813,11 @@
       <c r="R5" s="1">
         <v>1199.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
@@ -812,26 +827,26 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
         <v>42</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -841,9 +856,6 @@
       <c r="H7">
         <v>0.5</v>
       </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -859,8 +871,11 @@
       <c r="R7" s="1">
         <v>1199.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="S7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
@@ -870,9 +885,6 @@
       <c r="H8">
         <v>0.39215686274509798</v>
       </c>
-      <c r="M8" t="s">
-        <v>42</v>
-      </c>
       <c r="N8">
         <v>100</v>
       </c>
@@ -888,8 +900,11 @@
       <c r="R8" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="S8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
@@ -899,26 +914,26 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
         <v>42</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
@@ -928,26 +943,26 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
         <v>42</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
@@ -957,9 +972,6 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="M11" t="s">
-        <v>47</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -975,8 +987,11 @@
       <c r="R11" s="1">
         <v>4095</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="S11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -986,26 +1001,26 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
         <v>42</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1015,9 +1030,6 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="M13" t="s">
-        <v>47</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1033,8 +1045,11 @@
       <c r="R13" s="1">
         <v>4095</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="S13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1044,9 +1059,6 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="M14" t="s">
-        <v>42</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1062,8 +1074,11 @@
       <c r="R14" s="1">
         <v>255</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="S14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
@@ -1073,9 +1088,6 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="M15" t="s">
-        <v>42</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1090,6 +1102,154 @@
       </c>
       <c r="R15" s="1">
         <v>100</v>
+      </c>
+      <c r="S15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-100</v>
+      </c>
+      <c r="R16" s="1">
+        <v>100</v>
+      </c>
+      <c r="S16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>100</v>
+      </c>
+      <c r="S19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>65535</v>
+      </c>
+      <c r="S20" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Code/GenModel/test.xlsx
+++ b/Code/GenModel/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CEAE60-E593-4515-92DD-ED6B97796FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6898F1AA-256E-4F48-B9B2-78650BACC23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>INCA monitoring name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,34 @@
   </si>
   <si>
     <t>can_gmaln_rx_trb_err_msg</t>
+  </si>
+  <si>
+    <t>inv_device_vnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanRx_can_gmlan_rx_trb_duty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanRx_can_gmlan_rx_trb_power_off_enb_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanRx_can_gmlan_rx_trb_ctrl_enb_stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanRx_can_gmlan_rx_vnt_act_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanRx_can_gmaln_rx_trb_err_msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -588,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1133,7 +1161,7 @@
         <v>100</v>
       </c>
       <c r="S16" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
@@ -1220,7 +1248,7 @@
         <v>100</v>
       </c>
       <c r="S19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.2">
@@ -1249,6 +1277,180 @@
         <v>65535</v>
       </c>
       <c r="S20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>200</v>
+      </c>
+      <c r="S22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="S25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>65535</v>
+      </c>
+      <c r="S26" t="s">
         <v>47</v>
       </c>
     </row>

--- a/Code/GenModel/test.xlsx
+++ b/Code/GenModel/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00.Me\DL\Share\Code\GenModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\github\Share\Code\GenModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0353BAD7-C684-4F4E-9BA1-5AA4FD73FEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8707959-2279-40EA-976F-256E41B571CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="80">
   <si>
     <t>INCA monitoring name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,10 @@
   </si>
   <si>
     <t>inv_device_vnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECM ON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,19 +383,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,56 +691,58 @@
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -768,807 +771,861 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
       <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" t="s">
         <v>2</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>4</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>5</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>6</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
         <v>-4000</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>4000</v>
       </c>
-      <c r="H5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="H5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>-848</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1199.5</v>
-      </c>
-      <c r="S5" s="3" t="s">
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>8</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-32000</v>
+      </c>
+      <c r="S5" s="1">
+        <v>32000</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3" t="s">
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>-4000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>8</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-32000</v>
+      </c>
+      <c r="S7" s="1">
+        <v>32000</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>-25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>125</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>128</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-3200</v>
+      </c>
+      <c r="S8" s="1">
+        <v>16000</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
-        <v>-848</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1199.5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>-848</v>
-      </c>
-      <c r="R7" s="3">
-        <v>1199.5</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>-100</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-100</v>
+      </c>
+      <c r="S9" s="1">
+        <v>100</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <v>-25</v>
-      </c>
-      <c r="G8" s="3">
-        <v>125</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.39215686274509798</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="3">
-        <v>255</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3" t="s">
+      <c r="H12" s="1">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>128</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>12800</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>65535</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>65535</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="3">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>65535</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>65535</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>1</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" s="3">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3" t="s">
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="M1:W1"/>
-    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="N1:X1"/>
+    <mergeCell ref="B1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1580,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9B985C-CC1A-48EC-9D34-7F9A2AD556C1}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1597,33 +1654,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1656,11 +1713,11 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="K2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" t="s">
         <v>2</v>
       </c>
